--- a/StructureDefinition-JP-Observation-LabResult.xlsx
+++ b/StructureDefinition-JP-Observation-LabResult.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T02:18:06+00:00</t>
+    <t>2022-06-15T04:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
